--- a/medicine/Handicap/Le_Temps_d'un_week-end/Le_Temps_d'un_week-end.xlsx
+++ b/medicine/Handicap/Le_Temps_d'un_week-end/Le_Temps_d'un_week-end.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Temps d'un week-end (Scent of a Woman, ou Parfum de femme au Québec) est un film américain de Martin Brest sorti en 1992.  Il s'agit d'un remake du film italien Parfum de femme (Profumo di donna), réalisé par Dino Risi en 1974, avec Vittorio Gassman, d'après le roman de Giovanni Arpino, Parfum de femme (Il buio e il miele).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le New Hampshire, Charles, un étudiant pauvre et timide, originaire de l'Oregon est boursier (scholar on the foundation) au college de Baird, établissement très cher et huppé qui prépare les fils de famille de l'establishment à entrer à la prestigieuse université Harvard. Pour gagner le prix de son voyage en Oregon pour les prochaines vacances de Noël, Charles travaille à la bibliothèque, et effectue d'autres petits travaux. Il répond à une demande de services : il s'agit de garder une personne « à mobilité restreinte » pendant le week-end de Thanksgiving. En fait, il s'agit d'une famille qui veut partir de chez elle pour échapper pendant quelques jours à la cohabitation avec l'oncle de la femme. Cet oncle est le lieutenant-colonel Slade, à la retraite, aveugle, passablement ingérable et carburant au Jack Daniel's. Il avait son heure de gloire comme officier de commandos au Viêt Nam, puis comme agent des services secrets sous le président Lyndon Johnson, et a apparemment fait siennes les manières brutales et le langage ordurier du successeur de J.F. Kennedy.
 Dès que la famille est partie, Slade révèle à Charles, médusé, qu'il a ses propres plans pour Thanksgiving, et il embarque aussitôt son jeune garde pour New York. Dans l'avion, en première classe, Slade révèle à Charles qu'il est un womanizer (un coureur), que pour lui rien ne vaut la femme, dont il analyse les parfums, et qu'il célèbre en une tirade lyrique inspirée du Cantique des cantiques. Ils descendent au Waldorf-Astoria. Sur place, Slade se fait tailler un costume sur mesure et un autre pour Charlie et entame un week-end de plaisirs, où il a l'intention de mener grand train : limousine, déjeuner au restaurant de grand luxe (l'Oak Room du Plaza Hotel...). Le colonel lui révèle qu'à la fin de ce dernier merveilleux week-end, il se suicidera, mais Charlie réussit à le laisser lui donner les balles de son pistolet d'ordonnance. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Le Temps d'un week-end
 Titre original : Scent of a Woman
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Al Pacino (VF : Bernard Murat) : le lieutenant colonel Frank Slade
 Chris O'Donnell (VF : William Coryn) : Charles « Charlie » Simms
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,8 +659,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lieux de tournage
-Le film a été tourné à New York[1].
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné à New York.
 </t>
         </is>
       </c>
@@ -653,7 +676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,7 +694,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
@@ -693,7 +718,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,8 +738,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 88 % d'opinions favorables pour 43 critiques[2]. Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 14 critiques.
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 88 % d'opinions favorables pour 43 critiques. Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 14 critiques.
 </t>
         </is>
       </c>
@@ -725,7 +755,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,8 +775,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récompenses
-Al Pacino remporte l'Oscar du meilleur acteur à la 65e cérémonie des Oscars en 1992 pour sa prestation dans le rôle de l'officier aveugle.
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Pacino remporte l'Oscar du meilleur acteur à la 65e cérémonie des Oscars en 1992 pour sa prestation dans le rôle de l'officier aveugle.
 </t>
         </is>
       </c>
@@ -757,7 +792,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le_Temps_d%27un_week-end</t>
+          <t>Le_Temps_d'un_week-end</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,8 +812,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Erreurs de traduction
-Lors de la scène de tango au moment où Slade va danser avec Donna (Gabrielle Anwar), il demande à Charlie quelques informations sur la piste de danse. Charlie répond, dans la version originale : « The floor is twenty [20] by thirty [30] », ce qui a été traduit au doublage par « vingt par trente mètres », alors que le spectateur découvre sur son écran une piste assez réduite. Le « 20 par 30 » de la version originale doit se comprendre : « 20 par 30 pieds », ce qui fait une surface d'environ 6 mètres sur 9, plus en accord avec l'image.
+          <t>Erreurs de traduction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lors de la scène de tango au moment où Slade va danser avec Donna (Gabrielle Anwar), il demande à Charlie quelques informations sur la piste de danse. Charlie répond, dans la version originale : « The floor is twenty  by thirty  », ce qui a été traduit au doublage par « vingt par trente mètres », alors que le spectateur découvre sur son écran une piste assez réduite. Le « 20 par 30 » de la version originale doit se comprendre : « 20 par 30 pieds », ce qui fait une surface d'environ 6 mètres sur 9, plus en accord avec l'image.
 Tout au long du film, l'arme de service de Slade est nommée comme étant un revolver dans les dialogues français, mais il est vraiment un pistolet.</t>
         </is>
       </c>
